--- a/data/trans_orig/P14_n_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P14_n_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>73662</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58294</v>
+        <v>59041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>91964</v>
+        <v>91956</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1554779994875614</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1230419696980645</v>
+        <v>0.1246170632443069</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1941075864391105</v>
+        <v>0.1940910935203461</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -765,19 +765,19 @@
         <v>68083</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54536</v>
+        <v>54820</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83522</v>
+        <v>83926</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.222000109492259</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1778270984783236</v>
+        <v>0.1787521286356978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2723414892923944</v>
+        <v>0.2736604678607553</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>137</v>
@@ -786,19 +786,19 @@
         <v>141745</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>121360</v>
+        <v>121956</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>165435</v>
+        <v>164683</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1816178520580965</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1554987376332551</v>
+        <v>0.1562617243735245</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2119720085162954</v>
+        <v>0.2110084286080446</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>111647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94981</v>
+        <v>92491</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130965</v>
+        <v>130721</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2356527122449254</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2004771186840607</v>
+        <v>0.1952214374186581</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2764291165169629</v>
+        <v>0.275913400709731</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>64</v>
@@ -836,19 +836,19 @@
         <v>65588</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52491</v>
+        <v>50354</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81080</v>
+        <v>81219</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2138643136270281</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1711588524253798</v>
+        <v>0.1641922234997241</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2643783334552851</v>
+        <v>0.2648336481095061</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>173</v>
@@ -857,19 +857,19 @@
         <v>177235</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>155869</v>
+        <v>156139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>202543</v>
+        <v>202650</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2270909644654327</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1997148469735707</v>
+        <v>0.2000604422069709</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2595187563358634</v>
+        <v>0.2596551613268667</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>288468</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>267441</v>
+        <v>266523</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>309695</v>
+        <v>311153</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6088692882675132</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5644889892730689</v>
+        <v>0.5625509695353903</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.653672937082743</v>
+        <v>0.6567514449503085</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>167</v>
@@ -907,19 +907,19 @@
         <v>173009</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>156032</v>
+        <v>155031</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>190059</v>
+        <v>190533</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5641355768807129</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5087768274981324</v>
+        <v>0.5055125216233273</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6197304877196803</v>
+        <v>0.6212772705893923</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>443</v>
@@ -928,19 +928,19 @@
         <v>461477</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>433745</v>
+        <v>431354</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>489674</v>
+        <v>487325</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5912911834764708</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5557582635311936</v>
+        <v>0.5526937511011891</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6274191174315528</v>
+        <v>0.6244096422542844</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>54890</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42419</v>
+        <v>42341</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>69340</v>
+        <v>69306</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1495909494589614</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1156034048609173</v>
+        <v>0.1153902396695936</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.188970988115145</v>
+        <v>0.1888782694558211</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>88</v>
@@ -1053,19 +1053,19 @@
         <v>91623</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>75523</v>
+        <v>76422</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>108950</v>
+        <v>111238</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2463866483767622</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2030916904411161</v>
+        <v>0.2055105676831738</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2929828121840237</v>
+        <v>0.2991349393300661</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>145</v>
@@ -1074,19 +1074,19 @@
         <v>146513</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>125319</v>
+        <v>125562</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>169008</v>
+        <v>168794</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.198311804927231</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.169625293983796</v>
+        <v>0.1699542834461483</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2287607395678684</v>
+        <v>0.2284714578858201</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>88906</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>74101</v>
+        <v>73309</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>105007</v>
+        <v>106448</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2422946770223239</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.201945350054657</v>
+        <v>0.199788430846539</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2861744847001945</v>
+        <v>0.2900998549279979</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>89</v>
@@ -1124,19 +1124,19 @@
         <v>91647</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>75705</v>
+        <v>76319</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>109674</v>
+        <v>107754</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2464530657911427</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2035813243819221</v>
+        <v>0.2052325137205326</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2949287081649952</v>
+        <v>0.2897673405921611</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>176</v>
@@ -1145,19 +1145,19 @@
         <v>180553</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>158393</v>
+        <v>158669</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>205404</v>
+        <v>204192</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2443877478968733</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2143921364475995</v>
+        <v>0.2147658950940805</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2780243410266073</v>
+        <v>0.2763836901332744</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>223138</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>205879</v>
+        <v>203363</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>242574</v>
+        <v>243029</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6081143735187147</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5610798845993422</v>
+        <v>0.5542233487919631</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6610823710891645</v>
+        <v>0.6623238450713811</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>186</v>
@@ -1195,19 +1195,19 @@
         <v>188595</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>169839</v>
+        <v>168914</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>207690</v>
+        <v>207793</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5071602858320952</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4567210995610571</v>
+        <v>0.4542341905733744</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5585100103854681</v>
+        <v>0.558785881351392</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>392</v>
@@ -1216,19 +1216,19 @@
         <v>411733</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>386226</v>
+        <v>387274</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>442449</v>
+        <v>437130</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5573004471758958</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5227758535256141</v>
+        <v>0.524193966220076</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5988758953830904</v>
+        <v>0.5916771082901923</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>122446</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>104565</v>
+        <v>103814</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>143524</v>
+        <v>145486</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2257535966649062</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.192785582652164</v>
+        <v>0.1914019144285518</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2646136394718363</v>
+        <v>0.2682326748378593</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>54</v>
@@ -1341,19 +1341,19 @@
         <v>55910</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>43699</v>
+        <v>42899</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68914</v>
+        <v>67677</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3332288577929595</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2604518295324275</v>
+        <v>0.2556815675948375</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4107340886091053</v>
+        <v>0.4033636475576644</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>178</v>
@@ -1362,19 +1362,19 @@
         <v>178356</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>156248</v>
+        <v>156095</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>201248</v>
+        <v>203007</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2511452337267052</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2200149775710045</v>
+        <v>0.2197992868899133</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2833801491866375</v>
+        <v>0.2858570887680315</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>124178</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106260</v>
+        <v>105830</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>145099</v>
+        <v>145911</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2289460077322492</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1959112347136287</v>
+        <v>0.1951179256002495</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2675178969403643</v>
+        <v>0.2690162509266795</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1412,19 +1412,19 @@
         <v>32714</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22899</v>
+        <v>24244</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43540</v>
+        <v>44619</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1949803189544026</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1364786032884263</v>
+        <v>0.1444989634949387</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2595030455107601</v>
+        <v>0.2659372454672562</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>158</v>
@@ -1433,19 +1433,19 @@
         <v>156892</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136207</v>
+        <v>135957</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>179130</v>
+        <v>181355</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2209214220466789</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1917951520337319</v>
+        <v>0.1914431134412752</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2522345256955598</v>
+        <v>0.2553685821935586</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>295765</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>272945</v>
+        <v>272205</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>320198</v>
+        <v>320613</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5453003956028446</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5032273271233637</v>
+        <v>0.5018637431792831</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5903476981667493</v>
+        <v>0.5911124323450557</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>78</v>
@@ -1483,19 +1483,19 @@
         <v>79158</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65651</v>
+        <v>66046</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>91911</v>
+        <v>92083</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.471790823252638</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3912876296797459</v>
+        <v>0.3936412152253532</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5477984376594227</v>
+        <v>0.5488260472431787</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>360</v>
@@ -1504,19 +1504,19 @@
         <v>374923</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>348987</v>
+        <v>347572</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>402455</v>
+        <v>399986</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5279333442266159</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4914125931748676</v>
+        <v>0.489419561547293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5667020682093937</v>
+        <v>0.5632254544824449</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>312197</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>281312</v>
+        <v>284313</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>342197</v>
+        <v>343102</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2521107677216065</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2271697263514981</v>
+        <v>0.2295930864286569</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2763367395754143</v>
+        <v>0.2770673022804868</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>206</v>
@@ -1629,19 +1629,19 @@
         <v>205456</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>182895</v>
+        <v>182820</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>231872</v>
+        <v>228902</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2876384213720658</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2560532010969789</v>
+        <v>0.2559485626360678</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3246206934246372</v>
+        <v>0.3204629983164697</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>530</v>
@@ -1650,19 +1650,19 @@
         <v>517653</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>477926</v>
+        <v>483102</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>556346</v>
+        <v>558642</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2651070933350896</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2447611654778456</v>
+        <v>0.2474124132594625</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.284922870612608</v>
+        <v>0.2860984590243743</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>273617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>248219</v>
+        <v>245543</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>308387</v>
+        <v>304397</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2209553866306705</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2004460669836818</v>
+        <v>0.1982845580322457</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2490340793511097</v>
+        <v>0.2458114670510027</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>187</v>
@@ -1700,19 +1700,19 @@
         <v>189853</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>168104</v>
+        <v>167847</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216480</v>
+        <v>211942</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2657947662961953</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2353452852618799</v>
+        <v>0.2349854501212602</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3030728643401453</v>
+        <v>0.2967190728117639</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>458</v>
@@ -1721,19 +1721,19 @@
         <v>463470</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>424971</v>
+        <v>427516</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>504576</v>
+        <v>500081</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2373580228467613</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2176412205029659</v>
+        <v>0.21894473624147</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2584099131751903</v>
+        <v>0.2561076434359911</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>652520</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>612778</v>
+        <v>616654</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>686276</v>
+        <v>688973</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5269338456477229</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4948408829123739</v>
+        <v>0.4979709731287942</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5541931791333823</v>
+        <v>0.5563709690060318</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>301</v>
@@ -1771,19 +1771,19 @@
         <v>318976</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>292944</v>
+        <v>290872</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>345468</v>
+        <v>347024</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4465668123317389</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4101226730325527</v>
+        <v>0.4072210968608805</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4836558946593194</v>
+        <v>0.4858339888335301</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>930</v>
@@ -1792,19 +1792,19 @@
         <v>971497</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>928887</v>
+        <v>928726</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1015367</v>
+        <v>1014351</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4975348838181491</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4757129239387292</v>
+        <v>0.4756306939498355</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5200026099255467</v>
+        <v>0.5194822276606332</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>74609</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>60613</v>
+        <v>59989</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>90183</v>
+        <v>90577</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2128323493740417</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1729054862417566</v>
+        <v>0.1711265732717764</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2572571940144192</v>
+        <v>0.2583821950557019</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>183</v>
@@ -1917,19 +1917,19 @@
         <v>195167</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>172340</v>
+        <v>172800</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>217501</v>
+        <v>220464</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3431502917748323</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3030140437774245</v>
+        <v>0.3038234614942955</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3824181764794973</v>
+        <v>0.3876268652344151</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>259</v>
@@ -1938,19 +1938,19 @@
         <v>269777</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>241982</v>
+        <v>240921</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>298850</v>
+        <v>298805</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2934567335304754</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.263222592538198</v>
+        <v>0.2620677243693114</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3250813442713318</v>
+        <v>0.3250333535991273</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>81929</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>65745</v>
+        <v>66903</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>98348</v>
+        <v>100446</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.233712391471157</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1875445422595952</v>
+        <v>0.1908489560366419</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2805500247719581</v>
+        <v>0.2865346228895929</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>140</v>
@@ -1988,19 +1988,19 @@
         <v>144331</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>124461</v>
+        <v>126178</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>165006</v>
+        <v>167535</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2537674872622055</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2188312859568941</v>
+        <v>0.2218503239260038</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2901186824411021</v>
+        <v>0.2945652468507354</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>221</v>
@@ -2009,19 +2009,19 @@
         <v>226260</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>200362</v>
+        <v>199926</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>255478</v>
+        <v>254631</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2461199672628215</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2179486457492665</v>
+        <v>0.217474687920744</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2779027402790346</v>
+        <v>0.2769811933952285</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>194017</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>174522</v>
+        <v>175023</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>212903</v>
+        <v>211719</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5534552591548013</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4978445478895386</v>
+        <v>0.4992752117716379</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6073307165727558</v>
+        <v>0.6039541152475446</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>216</v>
@@ -2059,19 +2059,19 @@
         <v>229254</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>207165</v>
+        <v>205672</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>252050</v>
+        <v>253241</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4030822209629622</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3642442259694616</v>
+        <v>0.3616197312957811</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4431640697231179</v>
+        <v>0.4452571244777017</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>399</v>
@@ -2080,19 +2080,19 @@
         <v>423270</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>392315</v>
+        <v>393602</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>452953</v>
+        <v>456110</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4604232992067031</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4267506872781829</v>
+        <v>0.4281508045781566</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4927112702096137</v>
+        <v>0.4961450968922987</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>9263</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4548</v>
+        <v>4561</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16288</v>
+        <v>16175</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03106150949972159</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01525293972307023</v>
+        <v>0.01529366628687552</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05462200832240478</v>
+        <v>0.05424238342728505</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>503</v>
@@ -2205,19 +2205,19 @@
         <v>516122</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>482522</v>
+        <v>480183</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>554801</v>
+        <v>548918</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4133079607723685</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3864011517267349</v>
+        <v>0.38452803518652</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4442815895427752</v>
+        <v>0.4395701772996848</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>513</v>
@@ -2226,19 +2226,19 @@
         <v>525385</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>487222</v>
+        <v>490017</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>561413</v>
+        <v>565175</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3396240427653221</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3149544294604243</v>
+        <v>0.3167610691632617</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3629136975027337</v>
+        <v>0.365345571564432</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>38604</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28413</v>
+        <v>27730</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50808</v>
+        <v>50552</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1294555549053429</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09528180992781836</v>
+        <v>0.09299036463208651</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1703817911477426</v>
+        <v>0.169523002036005</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>284</v>
@@ -2276,19 +2276,19 @@
         <v>285284</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>258679</v>
+        <v>257507</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>318457</v>
+        <v>313807</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2284538013996059</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2071487811658475</v>
+        <v>0.2062104064328062</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2550189099272087</v>
+        <v>0.2512951370773432</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>323</v>
@@ -2297,19 +2297,19 @@
         <v>323888</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>293317</v>
+        <v>293576</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>355245</v>
+        <v>356903</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.209370357581519</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1896087377942973</v>
+        <v>0.1897762282346145</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2296406874133716</v>
+        <v>0.2307122107460219</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>250335</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>237473</v>
+        <v>237428</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>261751</v>
+        <v>262484</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8394829355949355</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7963511993967642</v>
+        <v>0.7962009425698593</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8777675500517803</v>
+        <v>0.8802238166024233</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>451</v>
@@ -2347,19 +2347,19 @@
         <v>447354</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>413307</v>
+        <v>413100</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>482617</v>
+        <v>480259</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3582382378280256</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3309735314898493</v>
+        <v>0.3308083928848209</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3864767461822655</v>
+        <v>0.3845885163470311</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>708</v>
@@ -2368,19 +2368,19 @@
         <v>697688</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>655270</v>
+        <v>657158</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>733756</v>
+        <v>735526</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4510055996531589</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.423585310189494</v>
+        <v>0.4248062962511698</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4743214798029182</v>
+        <v>0.4754653352964054</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>647068</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>603708</v>
+        <v>604107</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>691661</v>
+        <v>691532</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1978685208095168</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1846094324200786</v>
+        <v>0.1847314081843768</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2115048441559657</v>
+        <v>0.2114655144025818</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1101</v>
@@ -2493,19 +2493,19 @@
         <v>1132361</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1080038</v>
+        <v>1082712</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1185585</v>
+        <v>1187433</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3352040893241786</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3197153318813671</v>
+        <v>0.3205068450340632</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3509594975053322</v>
+        <v>0.3515065987956345</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1762</v>
@@ -2514,19 +2514,19 @@
         <v>1779429</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1711082</v>
+        <v>1710399</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1849909</v>
+        <v>1847420</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.267651112536254</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2573708795997825</v>
+        <v>0.2572681383461402</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.278252387168195</v>
+        <v>0.2778779440827241</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>718880</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>668174</v>
+        <v>675361</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>764681</v>
+        <v>765294</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2198282726316034</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2043225721472104</v>
+        <v>0.2065205499042636</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2338339097125218</v>
+        <v>0.2340212154894368</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>796</v>
@@ -2564,19 +2564,19 @@
         <v>809417</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>761400</v>
+        <v>759636</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>857477</v>
+        <v>862368</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2396055659398463</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2253913965909156</v>
+        <v>0.2248691106265384</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2538321627616081</v>
+        <v>0.2552800170216665</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1509</v>
@@ -2585,19 +2585,19 @@
         <v>1528298</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1462406</v>
+        <v>1457880</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1600651</v>
+        <v>1591529</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2298774594469018</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2199664582626459</v>
+        <v>0.2192856811805666</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2407604159952695</v>
+        <v>0.2393883961993863</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>1904242</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1848691</v>
+        <v>1850982</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1964509</v>
+        <v>1959496</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5823032065588798</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5653159777516209</v>
+        <v>0.5660165533790009</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6007324944962246</v>
+        <v>0.5991994949316287</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1399</v>
@@ -2635,19 +2635,19 @@
         <v>1436346</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1380336</v>
+        <v>1378125</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1490648</v>
+        <v>1491641</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4251903447359752</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4086103311257239</v>
+        <v>0.4079557436131648</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4412651547449191</v>
+        <v>0.4415588797152827</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3232</v>
@@ -2656,19 +2656,19 @@
         <v>3340588</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3253715</v>
+        <v>3261230</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3422073</v>
+        <v>3419627</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5024714280168442</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.489404505803163</v>
+        <v>0.4905349401470336</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5147278882138336</v>
+        <v>0.5143600139685465</v>
       </c>
     </row>
     <row r="31">
@@ -3002,19 +3002,19 @@
         <v>85987</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69920</v>
+        <v>69065</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>104737</v>
+        <v>104884</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1966711011580046</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1599216607455462</v>
+        <v>0.1579681637112829</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2395579521051886</v>
+        <v>0.2398925305724531</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -3023,19 +3023,19 @@
         <v>67679</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53748</v>
+        <v>54370</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83389</v>
+        <v>83595</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2152263132093803</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1709245499163497</v>
+        <v>0.1729014873748237</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2651865705582517</v>
+        <v>0.2658427270212038</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>140</v>
@@ -3044,19 +3044,19 @@
         <v>153666</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132557</v>
+        <v>130550</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>178109</v>
+        <v>176032</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2044335553183231</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.176350678599398</v>
+        <v>0.1736807995775785</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2369527129507507</v>
+        <v>0.2341898271882383</v>
       </c>
     </row>
     <row r="5">
@@ -3073,19 +3073,19 @@
         <v>91810</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>75577</v>
+        <v>74921</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>110689</v>
+        <v>114250</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2099906954879096</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1728608941843446</v>
+        <v>0.1713612407866384</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2531695705991153</v>
+        <v>0.2613163599850064</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -3094,19 +3094,19 @@
         <v>77205</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>62476</v>
+        <v>61185</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>96078</v>
+        <v>93553</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2455218238740322</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1986816776324362</v>
+        <v>0.1945751341240513</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3055388636711426</v>
+        <v>0.2975108497706466</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>149</v>
@@ -3115,19 +3115,19 @@
         <v>169016</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>144791</v>
+        <v>146047</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>195967</v>
+        <v>193975</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2248549155570745</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1926274840282199</v>
+        <v>0.1942982505587427</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2607104530152147</v>
+        <v>0.258060379825166</v>
       </c>
     </row>
     <row r="6">
@@ -3144,19 +3144,19 @@
         <v>259414</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>236869</v>
+        <v>236050</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>279863</v>
+        <v>280333</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5933382033540858</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5417728244164897</v>
+        <v>0.5399000037892</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6401104082586455</v>
+        <v>0.6411849058828842</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>154</v>
@@ -3165,19 +3165,19 @@
         <v>169570</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>151155</v>
+        <v>152065</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>189583</v>
+        <v>186780</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5392518629165876</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4806902363075725</v>
+        <v>0.4835833464457646</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6028957421177343</v>
+        <v>0.5939806088833238</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>398</v>
@@ -3186,19 +3186,19 @@
         <v>428984</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>397965</v>
+        <v>399574</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>456765</v>
+        <v>456154</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5707115291246024</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5294451224675188</v>
+        <v>0.5315852197969968</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6076711099335853</v>
+        <v>0.6068578919444351</v>
       </c>
     </row>
     <row r="7">
@@ -3290,19 +3290,19 @@
         <v>85497</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>68258</v>
+        <v>69154</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>103530</v>
+        <v>104778</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.204149250273242</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1629861924687436</v>
+        <v>0.1651248022401271</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2472090386410866</v>
+        <v>0.2501877752338144</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>85</v>
@@ -3311,19 +3311,19 @@
         <v>93371</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>77195</v>
+        <v>77114</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>110665</v>
+        <v>110239</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2762365919491159</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2283792827665234</v>
+        <v>0.228140593810829</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3274007424101846</v>
+        <v>0.3261411037590243</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>161</v>
@@ -3332,19 +3332,19 @@
         <v>178868</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>154931</v>
+        <v>153846</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>203017</v>
+        <v>204449</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2363454212148344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2047169007739066</v>
+        <v>0.2032828962436702</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2682540403014584</v>
+        <v>0.2701468443005434</v>
       </c>
     </row>
     <row r="9">
@@ -3361,19 +3361,19 @@
         <v>89802</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>72857</v>
+        <v>73195</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>106915</v>
+        <v>111891</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2144290497054445</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1739663632885651</v>
+        <v>0.1747751941968994</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2552904411878879</v>
+        <v>0.2671714849897503</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>73</v>
@@ -3382,19 +3382,19 @@
         <v>80402</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>64604</v>
+        <v>66323</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>98138</v>
+        <v>97943</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2378682697855556</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1911303868106035</v>
+        <v>0.196214917696675</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2903391252921099</v>
+        <v>0.2897621381640759</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>153</v>
@@ -3403,19 +3403,19 @@
         <v>170204</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>145970</v>
+        <v>147662</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>194444</v>
+        <v>196058</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2248976440368877</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1928756137065706</v>
+        <v>0.1951110023957492</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.256926774201328</v>
+        <v>0.2590585986690012</v>
       </c>
     </row>
     <row r="10">
@@ -3432,19 +3432,19 @@
         <v>243498</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>221662</v>
+        <v>220126</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>265502</v>
+        <v>263692</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5814217000213134</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.529283588776979</v>
+        <v>0.5256159128212097</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6339646538388058</v>
+        <v>0.6296404427825421</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>147</v>
@@ -3453,19 +3453,19 @@
         <v>164238</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>145618</v>
+        <v>145580</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>181408</v>
+        <v>184490</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4858951382653285</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4308076213980754</v>
+        <v>0.4306962451126904</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5366914942625551</v>
+        <v>0.5458107279447777</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>366</v>
@@ -3474,19 +3474,19 @@
         <v>407736</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>378448</v>
+        <v>373966</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>437672</v>
+        <v>435747</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5387569347482779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.500058103128906</v>
+        <v>0.494135437594647</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.578313539652592</v>
+        <v>0.5757689747346618</v>
       </c>
     </row>
     <row r="11">
@@ -3578,19 +3578,19 @@
         <v>191133</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>168130</v>
+        <v>167997</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>216552</v>
+        <v>215736</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3036678632411068</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2671217382945132</v>
+        <v>0.2669105375712177</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3440521330408471</v>
+        <v>0.3427569978639909</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>91</v>
@@ -3599,19 +3599,19 @@
         <v>97606</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>83229</v>
+        <v>81301</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>114939</v>
+        <v>113524</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3752204044146334</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3199530591307801</v>
+        <v>0.312540247189836</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4418543346027136</v>
+        <v>0.4364157974794421</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>264</v>
@@ -3620,19 +3620,19 @@
         <v>288739</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>260207</v>
+        <v>261792</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>317688</v>
+        <v>318540</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3245919732628939</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2925167735234147</v>
+        <v>0.2942994892834049</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.357136030634823</v>
+        <v>0.3580934991849952</v>
       </c>
     </row>
     <row r="13">
@@ -3649,19 +3649,19 @@
         <v>124270</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104776</v>
+        <v>102961</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>147897</v>
+        <v>143904</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1974373447919563</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1664656478024777</v>
+        <v>0.1635816519498504</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2349747662642114</v>
+        <v>0.228630868418795</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -3670,19 +3670,19 @@
         <v>66325</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51593</v>
+        <v>52650</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81018</v>
+        <v>81798</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2549705767925635</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.198338001116704</v>
+        <v>0.2023998263399634</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3114542122382977</v>
+        <v>0.3144526930238624</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>178</v>
@@ -3691,19 +3691,19 @@
         <v>190595</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>166762</v>
+        <v>167703</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>217048</v>
+        <v>217570</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2142617881526781</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1874691071221956</v>
+        <v>0.1885271162823054</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2439989997140627</v>
+        <v>0.2445857385630839</v>
       </c>
     </row>
     <row r="14">
@@ -3720,19 +3720,19 @@
         <v>314012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>286516</v>
+        <v>287599</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>340307</v>
+        <v>340253</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4988947919669369</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4552101913491791</v>
+        <v>0.4569313976883402</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5406717460709434</v>
+        <v>0.5405853592985801</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>91</v>
@@ -3741,19 +3741,19 @@
         <v>96198</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>81238</v>
+        <v>81578</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>112123</v>
+        <v>111290</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.369809018792803</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3122989658315624</v>
+        <v>0.3136069452523823</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4310301850467304</v>
+        <v>0.4278275843871143</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>393</v>
@@ -3762,19 +3762,19 @@
         <v>410210</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>381210</v>
+        <v>378711</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>440563</v>
+        <v>440180</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.461146238584428</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4285459636782231</v>
+        <v>0.4257358627423092</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4952684188168265</v>
+        <v>0.494837389313891</v>
       </c>
     </row>
     <row r="15">
@@ -3866,19 +3866,19 @@
         <v>328898</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>296747</v>
+        <v>300109</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>358858</v>
+        <v>363804</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2837750312625978</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2560354616242989</v>
+        <v>0.2589354513482867</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3096251596055757</v>
+        <v>0.3138926888911027</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>208</v>
@@ -3887,19 +3887,19 @@
         <v>225354</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>198293</v>
+        <v>201314</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>250309</v>
+        <v>254211</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2939441194727727</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2586460812061596</v>
+        <v>0.2625870384090364</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3264942689617478</v>
+        <v>0.3315843109053656</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>512</v>
@@ -3908,19 +3908,19 @@
         <v>554252</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>511833</v>
+        <v>511880</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>594485</v>
+        <v>595144</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2878236068498459</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2657952468814067</v>
+        <v>0.2658196491714653</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3087165697903684</v>
+        <v>0.3090587716830114</v>
       </c>
     </row>
     <row r="17">
@@ -3937,19 +3937,19 @@
         <v>222140</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195130</v>
+        <v>192403</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>251376</v>
+        <v>250252</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1916634122598424</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1683593851200111</v>
+        <v>0.1660063046366798</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2168890934395763</v>
+        <v>0.2159186739386266</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>162</v>
@@ -3958,19 +3958,19 @@
         <v>177486</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>154846</v>
+        <v>153734</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202124</v>
+        <v>205770</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2315067434641143</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2019755455345139</v>
+        <v>0.2005248404918659</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2636435878333582</v>
+        <v>0.2683996036018046</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>369</v>
@@ -3979,19 +3979,19 @@
         <v>399626</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>365862</v>
+        <v>362290</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>441617</v>
+        <v>436860</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2075260672682681</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1899924019483553</v>
+        <v>0.1881373070809133</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.229331813229948</v>
+        <v>0.2268615522413033</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>607972</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>573602</v>
+        <v>570995</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>645634</v>
+        <v>641992</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5245615564775598</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4949073106067196</v>
+        <v>0.4926579434448211</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5570567227769576</v>
+        <v>0.5539149935526724</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>341</v>
@@ -4029,19 +4029,19 @@
         <v>363816</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>334452</v>
+        <v>337578</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>395538</v>
+        <v>392181</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.474549137063113</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4362466021936532</v>
+        <v>0.4403252406196775</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5159253125394426</v>
+        <v>0.511547330384296</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>913</v>
@@ -4050,19 +4050,19 @@
         <v>971788</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>926376</v>
+        <v>928344</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1013047</v>
+        <v>1014105</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5046503258818861</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4810676679704063</v>
+        <v>0.4820897089553617</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5260757415954436</v>
+        <v>0.526625089197953</v>
       </c>
     </row>
     <row r="19">
@@ -4154,19 +4154,19 @@
         <v>122648</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>105084</v>
+        <v>101880</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>143884</v>
+        <v>143968</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2402058016635145</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2058056950686387</v>
+        <v>0.199531323563674</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2817955891982323</v>
+        <v>0.2819601120254617</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>329</v>
@@ -4175,19 +4175,19 @@
         <v>353787</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>326817</v>
+        <v>327606</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>383799</v>
+        <v>383631</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4645790466491642</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4291625038761073</v>
+        <v>0.4301993145925316</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5039896358376827</v>
+        <v>0.5037688106579684</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>444</v>
@@ -4196,19 +4196,19 @@
         <v>476435</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>442139</v>
+        <v>443082</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>511991</v>
+        <v>512883</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3745212485144684</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3475609496758196</v>
+        <v>0.3483027105588594</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4024713430529482</v>
+        <v>0.4031725135148573</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>101532</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>83975</v>
+        <v>84724</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>121162</v>
+        <v>122290</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.198850093349562</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1644653346585332</v>
+        <v>0.165932254670689</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2372956375224511</v>
+        <v>0.2395049638946536</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>142</v>
@@ -4246,19 +4246,19 @@
         <v>152587</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>127507</v>
+        <v>130193</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>175745</v>
+        <v>177675</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2003708491859969</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1674376618908603</v>
+        <v>0.170964786811761</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2307813203797849</v>
+        <v>0.2333153171894597</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>237</v>
@@ -4267,19 +4267,19 @@
         <v>254119</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>227132</v>
+        <v>224644</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>283855</v>
+        <v>283287</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1997604559007432</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1785461923115166</v>
+        <v>0.1765907847675776</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2231361060443686</v>
+        <v>0.2226895515896022</v>
       </c>
     </row>
     <row r="22">
@@ -4296,19 +4296,19 @@
         <v>286416</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>265319</v>
+        <v>262656</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>311018</v>
+        <v>308409</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5609441049869235</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5196255883234553</v>
+        <v>0.5144112754546221</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6091276358931175</v>
+        <v>0.6040184257671278</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>232</v>
@@ -4317,19 +4317,19 @@
         <v>255148</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>229456</v>
+        <v>230174</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>284301</v>
+        <v>283600</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3350501041648389</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3013127052733136</v>
+        <v>0.3022552136899915</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3733327449062653</v>
+        <v>0.3724121502633908</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>509</v>
@@ -4338,19 +4338,19 @@
         <v>541564</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>505920</v>
+        <v>502759</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>578096</v>
+        <v>573884</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4257182955847884</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.397698950508806</v>
+        <v>0.3952142986266907</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4544361580615702</v>
+        <v>0.4511249044245587</v>
       </c>
     </row>
     <row r="23">
@@ -4442,19 +4442,19 @@
         <v>16680</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9620</v>
+        <v>9722</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27654</v>
+        <v>27017</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06250055496231734</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0360456409359047</v>
+        <v>0.03642869505628005</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.103618482161772</v>
+        <v>0.1012325805211272</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>500</v>
@@ -4463,19 +4463,19 @@
         <v>535654</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>505607</v>
+        <v>503362</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>570697</v>
+        <v>566884</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4828538328453058</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.455768194560752</v>
+        <v>0.453744686366143</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5144426619677146</v>
+        <v>0.5110051795773664</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>515</v>
@@ -4484,19 +4484,19 @@
         <v>552335</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>515526</v>
+        <v>517968</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>589072</v>
+        <v>590664</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4013380737704579</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3745923780543422</v>
+        <v>0.3763667365704645</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4280322566015686</v>
+        <v>0.4291888113179844</v>
       </c>
     </row>
     <row r="25">
@@ -4513,19 +4513,19 @@
         <v>41802</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30448</v>
+        <v>31460</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56206</v>
+        <v>55471</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1566321235159161</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1140872958723317</v>
+        <v>0.1178804989899815</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2106022485764251</v>
+        <v>0.2078476620024251</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>189</v>
@@ -4534,19 +4534,19 @@
         <v>199688</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>175199</v>
+        <v>176507</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>225760</v>
+        <v>226384</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1800046111080748</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1579289374699368</v>
+        <v>0.1591085466563339</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2035067796935817</v>
+        <v>0.2040692146864772</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>229</v>
@@ -4555,19 +4555,19 @@
         <v>241491</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>214399</v>
+        <v>216077</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>271906</v>
+        <v>272890</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1754721709731066</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1557867288840225</v>
+        <v>0.157005784581569</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1975723428098001</v>
+        <v>0.1982876435422437</v>
       </c>
     </row>
     <row r="26">
@@ -4584,19 +4584,19 @@
         <v>208399</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>192820</v>
+        <v>194484</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>221307</v>
+        <v>221019</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7808673215217666</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7224899599883959</v>
+        <v>0.7287248373239631</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8292306081480694</v>
+        <v>0.8281532678344022</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>355</v>
@@ -4605,19 +4605,19 @@
         <v>374008</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>341710</v>
+        <v>344712</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>403691</v>
+        <v>408510</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3371415560466195</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3080269867801824</v>
+        <v>0.3107333861316439</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3638986467930375</v>
+        <v>0.3682418820896594</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>565</v>
@@ -4626,19 +4626,19 @@
         <v>582408</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>546249</v>
+        <v>546377</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>622637</v>
+        <v>621450</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4231897552564354</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.396916235625196</v>
+        <v>0.3970087725183223</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4524215142462494</v>
+        <v>0.4515586083804261</v>
       </c>
     </row>
     <row r="27">
@@ -4730,19 +4730,19 @@
         <v>830843</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>779663</v>
+        <v>783405</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>883837</v>
+        <v>887952</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2428010112635317</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2278445171316401</v>
+        <v>0.2289380517066608</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2582876856690428</v>
+        <v>0.2594901944975202</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1276</v>
@@ -4751,19 +4751,19 @@
         <v>1373452</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1311823</v>
+        <v>1313368</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1435692</v>
+        <v>1433111</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3868741734825632</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3695145888072531</v>
+        <v>0.369949734991606</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4044060926982056</v>
+        <v>0.403679015662997</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2036</v>
@@ -4772,19 +4772,19 @@
         <v>2204295</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2128924</v>
+        <v>2122221</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2288227</v>
+        <v>2280394</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3161623407023741</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3053518526456579</v>
+        <v>0.3043904155269517</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3282007577563168</v>
+        <v>0.3270771766378337</v>
       </c>
     </row>
     <row r="29">
@@ -4801,19 +4801,19 @@
         <v>671356</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>624251</v>
+        <v>620648</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>714676</v>
+        <v>721510</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1961934947498342</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1824276395890756</v>
+        <v>0.1813747972704603</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2088529562706387</v>
+        <v>0.2108500005766707</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>694</v>
@@ -4822,19 +4822,19 @@
         <v>753694</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>700939</v>
+        <v>697736</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>803568</v>
+        <v>803835</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2123007669476201</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1974405934182679</v>
+        <v>0.1965384251691582</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.226349318689057</v>
+        <v>0.2264243733616944</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1315</v>
@@ -4843,19 +4843,19 @@
         <v>1425051</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1358817</v>
+        <v>1356434</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1496301</v>
+        <v>1498908</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2043952367249735</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1948952498760015</v>
+        <v>0.1945535413310555</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2146146484022529</v>
+        <v>0.2149885986100985</v>
       </c>
     </row>
     <row r="30">
@@ -4872,19 +4872,19 @@
         <v>1919710</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1857382</v>
+        <v>1854981</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1975435</v>
+        <v>1977716</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.561005493986634</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5427909470298409</v>
+        <v>0.5420892534313994</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5772902254772234</v>
+        <v>0.5779567724863734</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1320</v>
@@ -4893,19 +4893,19 @@
         <v>1422979</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1364220</v>
+        <v>1362835</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1482823</v>
+        <v>1484328</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4008250595698167</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3842736553483306</v>
+        <v>0.3838837208776573</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4176817979806349</v>
+        <v>0.4181058774231075</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3144</v>
@@ -4914,19 +4914,19 @@
         <v>3342689</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3259858</v>
+        <v>3258630</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3426885</v>
+        <v>3430766</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4794424225726524</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.467561970212352</v>
+        <v>0.4673857633768576</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.49151860568043</v>
+        <v>0.4920752860391986</v>
       </c>
     </row>
     <row r="31">
@@ -5260,19 +5260,19 @@
         <v>98702</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>80664</v>
+        <v>81125</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>117717</v>
+        <v>117971</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2300263439792809</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1879881802774772</v>
+        <v>0.1890622790533341</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2743404485259164</v>
+        <v>0.2749325715503734</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -5281,19 +5281,19 @@
         <v>86262</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70654</v>
+        <v>71591</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>105331</v>
+        <v>105937</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2485554485504287</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2035806266311526</v>
+        <v>0.2062812665434757</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3034994663386183</v>
+        <v>0.305244144090224</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>166</v>
@@ -5302,19 +5302,19 @@
         <v>184965</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>158226</v>
+        <v>160536</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>210067</v>
+        <v>210482</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2383116524878039</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.203861500028859</v>
+        <v>0.2068373676573119</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2706531836354728</v>
+        <v>0.2711886253446297</v>
       </c>
     </row>
     <row r="5">
@@ -5331,19 +5331,19 @@
         <v>81644</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>64444</v>
+        <v>65933</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98410</v>
+        <v>99906</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1902706081798141</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1501878029117674</v>
+        <v>0.1536565352731404</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2293458943667285</v>
+        <v>0.2328309448041725</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -5352,19 +5352,19 @@
         <v>68268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>53954</v>
+        <v>54444</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86368</v>
+        <v>85962</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.196707234034933</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1554615567571264</v>
+        <v>0.1568737698885632</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2488592894226249</v>
+        <v>0.2476887353052972</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>143</v>
@@ -5373,19 +5373,19 @@
         <v>149912</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126624</v>
+        <v>128421</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>173592</v>
+        <v>173499</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1931487521699256</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1631443323132217</v>
+        <v>0.1654591415981264</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2236584934887571</v>
+        <v>0.223539173496698</v>
       </c>
     </row>
     <row r="6">
@@ -5402,19 +5402,19 @@
         <v>248746</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>225726</v>
+        <v>227928</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>269280</v>
+        <v>268646</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.579703047840905</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5260558167171759</v>
+        <v>0.5311864912283739</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6275580850229373</v>
+        <v>0.6260801834104195</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>190</v>
@@ -5423,19 +5423,19 @@
         <v>192524</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>172676</v>
+        <v>171361</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>210575</v>
+        <v>210943</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5547373174146383</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.497546013143833</v>
+        <v>0.4937563601474682</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6067477673423719</v>
+        <v>0.6078085941650572</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>419</v>
@@ -5444,19 +5444,19 @@
         <v>441270</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>414034</v>
+        <v>411631</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>469053</v>
+        <v>470606</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5685395953422705</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5334484915683807</v>
+        <v>0.5303523680204835</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6043354083234987</v>
+        <v>0.6063356925436102</v>
       </c>
     </row>
     <row r="7">
@@ -5548,19 +5548,19 @@
         <v>79859</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63514</v>
+        <v>64443</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>98001</v>
+        <v>97583</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2117014415982012</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1683709748858855</v>
+        <v>0.1708345117710486</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.259792115277827</v>
+        <v>0.2586840298167782</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>74</v>
@@ -5569,19 +5569,19 @@
         <v>82717</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>66145</v>
+        <v>67962</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>100278</v>
+        <v>100803</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2221951678279839</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1776777055001729</v>
+        <v>0.1825592735580392</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2693678220518236</v>
+        <v>0.2707776906891514</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>149</v>
@@ -5590,19 +5590,19 @@
         <v>162577</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>141444</v>
+        <v>138682</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>189518</v>
+        <v>188823</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2169136262394011</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1887184356961358</v>
+        <v>0.1850332998237354</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2528590676016045</v>
+        <v>0.2519313116318016</v>
       </c>
     </row>
     <row r="9">
@@ -5619,19 +5619,19 @@
         <v>77209</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>62441</v>
+        <v>61773</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>94817</v>
+        <v>94603</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2046759054606962</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1655268409318869</v>
+        <v>0.1637565134373971</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2513535191251829</v>
+        <v>0.2507850728848424</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>87</v>
@@ -5640,19 +5640,19 @@
         <v>90654</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>74295</v>
+        <v>75174</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>108849</v>
+        <v>108557</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2435151040855451</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1995719900841497</v>
+        <v>0.2019316781323854</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2923908487086003</v>
+        <v>0.2916061152608289</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>161</v>
@@ -5661,19 +5661,19 @@
         <v>167863</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>143863</v>
+        <v>146523</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>193742</v>
+        <v>191200</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2239671534041011</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1919454227196064</v>
+        <v>0.1954942377385461</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2584947557954586</v>
+        <v>0.2551038215609948</v>
       </c>
     </row>
     <row r="10">
@@ -5690,19 +5690,19 @@
         <v>220158</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>201063</v>
+        <v>198431</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>240427</v>
+        <v>238616</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5836226529411026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5330027734622501</v>
+        <v>0.5260250693862838</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6373535291666071</v>
+        <v>0.6325535374665433</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>191</v>
@@ -5711,19 +5711,19 @@
         <v>198902</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>179848</v>
+        <v>178503</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>218657</v>
+        <v>217231</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.534289728086471</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4831086868312621</v>
+        <v>0.4794939236014811</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5873577189403566</v>
+        <v>0.5835265485523869</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>396</v>
@@ -5732,19 +5732,19 @@
         <v>419060</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>390282</v>
+        <v>390461</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>448298</v>
+        <v>448089</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5591192203564977</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5207233168651875</v>
+        <v>0.5209624587125486</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5981292946219242</v>
+        <v>0.597850767806914</v>
       </c>
     </row>
     <row r="11">
@@ -5836,19 +5836,19 @@
         <v>142540</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>122324</v>
+        <v>121427</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>162516</v>
+        <v>163116</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2731110449690752</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2343762557030683</v>
+        <v>0.2326568360856098</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.311385342971316</v>
+        <v>0.3125342642787612</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>50</v>
@@ -5857,19 +5857,19 @@
         <v>59502</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>46055</v>
+        <v>47710</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>72678</v>
+        <v>73115</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3581798340432147</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2772335746427281</v>
+        <v>0.2871985714053179</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.437494163019937</v>
+        <v>0.4401265435817521</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>192</v>
@@ -5878,19 +5878,19 @@
         <v>202042</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>179396</v>
+        <v>179905</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>227058</v>
+        <v>226327</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2936504580533145</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2607364063882008</v>
+        <v>0.2614764392842081</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3300086397626803</v>
+        <v>0.3289462369690583</v>
       </c>
     </row>
     <row r="13">
@@ -5907,19 +5907,19 @@
         <v>123065</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104404</v>
+        <v>104951</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>145885</v>
+        <v>143653</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2357956482627686</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2000400936120778</v>
+        <v>0.2010896221649476</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2795184548047604</v>
+        <v>0.2752427325474996</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -5928,19 +5928,19 @@
         <v>42811</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33125</v>
+        <v>31742</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56445</v>
+        <v>54320</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2577082123500619</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1993979779559974</v>
+        <v>0.1910775849106777</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3397759076985394</v>
+        <v>0.3269846740291987</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>158</v>
@@ -5949,19 +5949,19 @@
         <v>165876</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>145875</v>
+        <v>141963</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189373</v>
+        <v>189080</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2410863219683921</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2120163014477571</v>
+        <v>0.2063314763587699</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2752365089151028</v>
+        <v>0.2748106678483061</v>
       </c>
     </row>
     <row r="14">
@@ -5978,19 +5978,19 @@
         <v>256308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>233283</v>
+        <v>233512</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>279723</v>
+        <v>281116</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4910933067681562</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4469756907881166</v>
+        <v>0.4474150484064555</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5359557977185117</v>
+        <v>0.5386259862987614</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -5999,19 +5999,19 @@
         <v>63810</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50915</v>
+        <v>51991</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76553</v>
+        <v>77328</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3841119536067235</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3064868422783748</v>
+        <v>0.312964521252752</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4608213932337391</v>
+        <v>0.4654841195583576</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>305</v>
@@ -6020,19 +6020,19 @@
         <v>320118</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>292538</v>
+        <v>295371</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>346584</v>
+        <v>349566</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4652632199782935</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4251777972658944</v>
+        <v>0.4292959853138049</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5037289195365007</v>
+        <v>0.5080629071819833</v>
       </c>
     </row>
     <row r="15">
@@ -6124,19 +6124,19 @@
         <v>293463</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>264713</v>
+        <v>265010</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>323427</v>
+        <v>323491</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2552656596349705</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2302574621542165</v>
+        <v>0.2305158324787934</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2813298581524303</v>
+        <v>0.2813848903291187</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>216</v>
@@ -6145,19 +6145,19 @@
         <v>235998</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>210604</v>
+        <v>208846</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>265336</v>
+        <v>261044</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2857547201210081</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2550064836127909</v>
+        <v>0.2528786513021525</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3212779421376711</v>
+        <v>0.3160815980485685</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>508</v>
@@ -6166,19 +6166,19 @@
         <v>529461</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>490859</v>
+        <v>491802</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>570446</v>
+        <v>568072</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2680117986539419</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2484713427803068</v>
+        <v>0.2489487378502146</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2887584333665227</v>
+        <v>0.2875564170773504</v>
       </c>
     </row>
     <row r="17">
@@ -6195,19 +6195,19 @@
         <v>241284</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>214442</v>
+        <v>214998</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>270148</v>
+        <v>272233</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2098782637714596</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1865297235315083</v>
+        <v>0.1870138829253692</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2349854412866465</v>
+        <v>0.2367990426571029</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>160</v>
@@ -6216,19 +6216,19 @@
         <v>166537</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>145346</v>
+        <v>143790</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>189574</v>
+        <v>190714</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2016488828605424</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1759900810972282</v>
+        <v>0.1741063517318869</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.229542908093784</v>
+        <v>0.2309227672276719</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>386</v>
@@ -6237,19 +6237,19 @@
         <v>407821</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>373759</v>
+        <v>372303</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>447062</v>
+        <v>444575</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2064379205316718</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1891956298215902</v>
+        <v>0.1884586862318391</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2263014193595272</v>
+        <v>0.2250426461020106</v>
       </c>
     </row>
     <row r="18">
@@ -6266,19 +6266,19 @@
         <v>614891</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>581716</v>
+        <v>580295</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>651274</v>
+        <v>647717</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5348560765935699</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.505998898320538</v>
+        <v>0.5047630074262457</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5665032503275235</v>
+        <v>0.5634098498374999</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>422</v>
@@ -6287,19 +6287,19 @@
         <v>423341</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>394369</v>
+        <v>396113</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>452876</v>
+        <v>454440</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5125963970184495</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4775165366839115</v>
+        <v>0.4796274436982592</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5483579770959695</v>
+        <v>0.5502523802194131</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1007</v>
@@ -6308,19 +6308,19 @@
         <v>1038232</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>995502</v>
+        <v>996498</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1081424</v>
+        <v>1081925</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5255502808143863</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5039206313842501</v>
+        <v>0.5044248344929733</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5474141953302469</v>
+        <v>0.5476676427567676</v>
       </c>
     </row>
     <row r="19">
@@ -6412,19 +6412,19 @@
         <v>179848</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>158115</v>
+        <v>157509</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>202977</v>
+        <v>204030</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2897467480322351</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.25473471971112</v>
+        <v>0.2537585026057486</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3270096357307258</v>
+        <v>0.3287068759430803</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>309</v>
@@ -6433,19 +6433,19 @@
         <v>338485</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>313844</v>
+        <v>311569</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>366505</v>
+        <v>366974</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4584999395651235</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4251218249974015</v>
+        <v>0.4220406080672307</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4964553236709693</v>
+        <v>0.4970904052955318</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>492</v>
@@ -6454,19 +6454,19 @@
         <v>518332</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>482946</v>
+        <v>481172</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>553371</v>
+        <v>554234</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3814212408756932</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3553819140105873</v>
+        <v>0.3540762674442133</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4072047094555966</v>
+        <v>0.4078396781318434</v>
       </c>
     </row>
     <row r="21">
@@ -6483,19 +6483,19 @@
         <v>109703</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>91798</v>
+        <v>90442</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>131036</v>
+        <v>130522</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.17673971012846</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1478924740871614</v>
+        <v>0.1457086515191267</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2111073507383406</v>
+        <v>0.2102799547837552</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>142</v>
@@ -6504,19 +6504,19 @@
         <v>148192</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>129018</v>
+        <v>126815</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>171304</v>
+        <v>171614</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2007361266221804</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1747628801965765</v>
+        <v>0.1717793580050617</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2320430741107235</v>
+        <v>0.2324620008153963</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>249</v>
@@ -6525,19 +6525,19 @@
         <v>257896</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>231048</v>
+        <v>228480</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>289394</v>
+        <v>285559</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1897756669132742</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1700191955799039</v>
+        <v>0.1681300673394634</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2129540326209851</v>
+        <v>0.2101319872402959</v>
       </c>
     </row>
     <row r="22">
@@ -6554,19 +6554,19 @@
         <v>331155</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>306990</v>
+        <v>305201</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>355854</v>
+        <v>357762</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5335135418393049</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4945813222638579</v>
+        <v>0.4916997114482102</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5733054207976461</v>
+        <v>0.576379170115164</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>248</v>
@@ -6575,19 +6575,19 @@
         <v>251567</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>225661</v>
+        <v>226434</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>276904</v>
+        <v>277902</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.340763933812696</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3056732455048524</v>
+        <v>0.306719488680938</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3750848113973382</v>
+        <v>0.3764364422843001</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>555</v>
@@ -6596,19 +6596,19 @@
         <v>582722</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>546989</v>
+        <v>545404</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>618479</v>
+        <v>622655</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4288030922110325</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4025086530074797</v>
+        <v>0.4013420573711177</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4551151859561834</v>
+        <v>0.4581879708121673</v>
       </c>
     </row>
     <row r="23">
@@ -6700,19 +6700,19 @@
         <v>15195</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9067</v>
+        <v>8912</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24237</v>
+        <v>23723</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05291841313242938</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03157767288368426</v>
+        <v>0.03103754330175047</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08440664998476637</v>
+        <v>0.08261508566777485</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>405</v>
@@ -6721,19 +6721,19 @@
         <v>469227</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>435061</v>
+        <v>434606</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>504184</v>
+        <v>506009</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4336564186782138</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4020799805009219</v>
+        <v>0.4016594887931147</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4659628970520178</v>
+        <v>0.46764981038603</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>420</v>
@@ -6742,19 +6742,19 @@
         <v>484422</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>447920</v>
+        <v>447037</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>520291</v>
+        <v>525235</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3538072613282278</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3271470652588847</v>
+        <v>0.3265020832703281</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3800045028101861</v>
+        <v>0.3836159023697297</v>
       </c>
     </row>
     <row r="25">
@@ -6771,19 +6771,19 @@
         <v>47870</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36556</v>
+        <v>35774</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61721</v>
+        <v>61054</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1667117422636752</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1273073267029825</v>
+        <v>0.1245865368427591</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2149454154780287</v>
+        <v>0.2126230575642254</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>195</v>
@@ -6792,19 +6792,19 @@
         <v>217166</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>190608</v>
+        <v>193871</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>244063</v>
+        <v>247153</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.200703468700542</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1761588260080781</v>
+        <v>0.1791746943187164</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2255616258561927</v>
+        <v>0.2284167083101202</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>241</v>
@@ -6813,19 +6813,19 @@
         <v>265037</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>235331</v>
+        <v>237808</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>294536</v>
+        <v>297293</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1935746539425714</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.171878298589884</v>
+        <v>0.1736874798309731</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2151198452156913</v>
+        <v>0.2171340599998501</v>
       </c>
     </row>
     <row r="26">
@@ -6842,19 +6842,19 @@
         <v>224079</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>209371</v>
+        <v>208888</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>236692</v>
+        <v>237475</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7803698446038955</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7291473131084993</v>
+        <v>0.7274654889133668</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8242960165062475</v>
+        <v>0.8270200129760309</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>392</v>
@@ -6863,19 +6863,19 @@
         <v>395632</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>365406</v>
+        <v>362823</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>431363</v>
+        <v>425989</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3656401126212443</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.337705824219137</v>
+        <v>0.3353186495782803</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3986630370911439</v>
+        <v>0.3936960044168722</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>603</v>
@@ -6884,19 +6884,19 @@
         <v>619711</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>585589</v>
+        <v>579798</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>658111</v>
+        <v>662123</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4526180847292008</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4276966473734994</v>
+        <v>0.4234665977242995</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4806642089051817</v>
+        <v>0.4835945592341599</v>
       </c>
     </row>
     <row r="27">
@@ -6988,19 +6988,19 @@
         <v>809608</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>759978</v>
+        <v>765060</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>859744</v>
+        <v>863065</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2391242721364773</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2244654793121788</v>
+        <v>0.2259666786577149</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2539323699508053</v>
+        <v>0.2549131750886579</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1130</v>
@@ -7009,19 +7009,19 @@
         <v>1272191</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1220524</v>
+        <v>1217018</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1333830</v>
+        <v>1327203</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3602313027718659</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.345601111074722</v>
+        <v>0.3446083997596418</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3776848886882254</v>
+        <v>0.3758081365115677</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1927</v>
@@ -7030,19 +7030,19 @@
         <v>2081800</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2002362</v>
+        <v>1996536</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2162514</v>
+        <v>2155367</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3009547513309681</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2894708811727061</v>
+        <v>0.2886286102928252</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3126231698932173</v>
+        <v>0.3115899786425346</v>
       </c>
     </row>
     <row r="29">
@@ -7059,19 +7059,19 @@
         <v>680776</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>631969</v>
+        <v>633372</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>729519</v>
+        <v>723913</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2010725566701592</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1866570445283567</v>
+        <v>0.1870713656015877</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2154691554802716</v>
+        <v>0.2138135456689398</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>691</v>
@@ -7080,19 +7080,19 @@
         <v>733629</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>686073</v>
+        <v>682790</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>782237</v>
+        <v>785808</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2077329836417751</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1942670788326309</v>
+        <v>0.1933374539415114</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2214967382986346</v>
+        <v>0.2225077709310027</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1338</v>
@@ -7101,19 +7101,19 @@
         <v>1414405</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1345461</v>
+        <v>1345679</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1481585</v>
+        <v>1484058</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2044729983219305</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1945061857696878</v>
+        <v>0.1945376253240509</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2141848219658905</v>
+        <v>0.2145423429233333</v>
       </c>
     </row>
     <row r="30">
@@ -7130,19 +7130,19 @@
         <v>1895338</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1841837</v>
+        <v>1838284</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1955203</v>
+        <v>1952641</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5598031711933634</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5440012103534756</v>
+        <v>0.5429519814505644</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5774848486296515</v>
+        <v>0.5767280055640338</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1505</v>
@@ -7151,19 +7151,19 @@
         <v>1525776</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1467828</v>
+        <v>1464879</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1591504</v>
+        <v>1586425</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4320357135863591</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4156273146111936</v>
+        <v>0.4147923906906257</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4506473837567056</v>
+        <v>0.449209070144899</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3285</v>
@@ -7172,19 +7172,19 @@
         <v>3421114</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3340373</v>
+        <v>3336918</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3511104</v>
+        <v>3515520</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4945722503471014</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4828999842004268</v>
+        <v>0.4824005978709117</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.507581711439555</v>
+        <v>0.5082201194526204</v>
       </c>
     </row>
     <row r="31">
@@ -7518,19 +7518,19 @@
         <v>168073</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>147030</v>
+        <v>147867</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>188469</v>
+        <v>191152</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3052434039348393</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2670268071905008</v>
+        <v>0.268546919252998</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3422858981215486</v>
+        <v>0.3471588475097133</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>288</v>
@@ -7539,19 +7539,19 @@
         <v>194032</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>175406</v>
+        <v>175165</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>213338</v>
+        <v>212880</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3972713281551203</v>
+        <v>0.3972713281551202</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3591363478973998</v>
+        <v>0.3586432397256719</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4367994686505458</v>
+        <v>0.4358615950695598</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>485</v>
@@ -7560,19 +7560,19 @@
         <v>362104</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>335434</v>
+        <v>334345</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>392716</v>
+        <v>390156</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3485024789099067</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3228345512213563</v>
+        <v>0.3217860347148322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3779643504438046</v>
+        <v>0.375500464106924</v>
       </c>
     </row>
     <row r="5">
@@ -7589,19 +7589,19 @@
         <v>147386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>126728</v>
+        <v>126777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>169948</v>
+        <v>169402</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2676737329554347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2301551556280049</v>
+        <v>0.2302445899278953</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3086504137886886</v>
+        <v>0.3076579905476308</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>165</v>
@@ -7610,19 +7610,19 @@
         <v>118519</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>102315</v>
+        <v>100583</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>135124</v>
+        <v>135931</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2426619144024314</v>
+        <v>0.2426619144024313</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2094863671734101</v>
+        <v>0.2059391056690534</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2766605164920239</v>
+        <v>0.2783117247873562</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>314</v>
@@ -7631,19 +7631,19 @@
         <v>265905</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>241808</v>
+        <v>241177</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>295681</v>
+        <v>293368</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2559165609534099</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2327249820139055</v>
+        <v>0.2321175830718612</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.284574118233751</v>
+        <v>0.2823482908056401</v>
       </c>
     </row>
     <row r="6">
@@ -7660,19 +7660,19 @@
         <v>235160</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>211038</v>
+        <v>211227</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>261734</v>
+        <v>262923</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.427082863109726</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3832752132048005</v>
+        <v>0.3836173141450921</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4753460896595041</v>
+        <v>0.47750531474339</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>233</v>
@@ -7681,19 +7681,19 @@
         <v>175861</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>158173</v>
+        <v>157258</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>194687</v>
+        <v>194190</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3600667574424484</v>
+        <v>0.3600667574424483</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3238520913522112</v>
+        <v>0.3219788769684735</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.398612226281168</v>
+        <v>0.3975948316488481</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>441</v>
@@ -7702,19 +7702,19 @@
         <v>411020</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>377646</v>
+        <v>381129</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>439693</v>
+        <v>444411</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3955809601366835</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3634600298701617</v>
+        <v>0.3668126310805673</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4231770813874776</v>
+        <v>0.4277179257247825</v>
       </c>
     </row>
     <row r="7">
@@ -7806,19 +7806,19 @@
         <v>158700</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>138201</v>
+        <v>138306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>179041</v>
+        <v>181447</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3284263078677612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2860058930111851</v>
+        <v>0.2862226455023351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3705236662899909</v>
+        <v>0.3755022902545915</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>259</v>
@@ -7827,19 +7827,19 @@
         <v>172828</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>156823</v>
+        <v>155163</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>192279</v>
+        <v>191901</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4084386507659747</v>
+        <v>0.4084386507659746</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.370615599554535</v>
+        <v>0.3666915899400709</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4544059991214212</v>
+        <v>0.4535138773625699</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>444</v>
@@ -7848,19 +7848,19 @@
         <v>331527</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>303595</v>
+        <v>306916</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>356622</v>
+        <v>358749</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3657810431536037</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3349630128690684</v>
+        <v>0.3386271294103372</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3934685459823716</v>
+        <v>0.3958150400388313</v>
       </c>
     </row>
     <row r="9">
@@ -7877,19 +7877,19 @@
         <v>100338</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>82966</v>
+        <v>82971</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>118176</v>
+        <v>120498</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.207647259196985</v>
+        <v>0.2076472591969849</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1716968764241516</v>
+        <v>0.1717069245745082</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2445639925559949</v>
+        <v>0.2493692213574696</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>125</v>
@@ -7898,19 +7898,19 @@
         <v>88102</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>75518</v>
+        <v>75415</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>104132</v>
+        <v>102935</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2082090737395547</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1784701468315806</v>
+        <v>0.1782264648332814</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2460921961313202</v>
+        <v>0.2432640709589017</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>227</v>
@@ -7919,19 +7919,19 @@
         <v>188440</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>167131</v>
+        <v>168212</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>214064</v>
+        <v>212561</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2079095491482257</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1843990724016458</v>
+        <v>0.1855920450185238</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2361815500771549</v>
+        <v>0.2345227584577921</v>
       </c>
     </row>
     <row r="10">
@@ -7948,19 +7948,19 @@
         <v>224175</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>200306</v>
+        <v>200670</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>246899</v>
+        <v>247065</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4639264329352539</v>
+        <v>0.4639264329352538</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4145294634225853</v>
+        <v>0.4152835356494255</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5109536558856247</v>
+        <v>0.5112981235110872</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>206</v>
@@ -7969,19 +7969,19 @@
         <v>162213</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>144503</v>
+        <v>142942</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180103</v>
+        <v>178534</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3833522754944705</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3414992916112863</v>
+        <v>0.3378097486242693</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4256317550281378</v>
+        <v>0.4219237811630631</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>400</v>
@@ -7990,19 +7990,19 @@
         <v>386388</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>359721</v>
+        <v>355574</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>417960</v>
+        <v>415852</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4263094076981707</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3968877243498034</v>
+        <v>0.3923120197520356</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.461143891590666</v>
+        <v>0.4588175425165746</v>
       </c>
     </row>
     <row r="11">
@@ -8094,19 +8094,19 @@
         <v>167344</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>148022</v>
+        <v>148367</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>188954</v>
+        <v>189202</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3548345623285972</v>
+        <v>0.3548345623285971</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3138648547239047</v>
+        <v>0.3145956175878219</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4006564488084371</v>
+        <v>0.4011822986958075</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>169</v>
@@ -8115,19 +8115,19 @@
         <v>103727</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>91834</v>
+        <v>92580</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>114769</v>
+        <v>114557</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5532198880291754</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4897909586132093</v>
+        <v>0.4937657406377718</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6121113172875562</v>
+        <v>0.6109780335270134</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>373</v>
@@ -8136,19 +8136,19 @@
         <v>271071</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>246838</v>
+        <v>247853</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>295118</v>
+        <v>295656</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4112694007900965</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3745020655409071</v>
+        <v>0.3760422720227424</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4477523770499915</v>
+        <v>0.4485698929165716</v>
       </c>
     </row>
     <row r="13">
@@ -8165,19 +8165,19 @@
         <v>111538</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>94450</v>
+        <v>93285</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133400</v>
+        <v>130186</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2365035886321641</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2002711851574057</v>
+        <v>0.1978004004941205</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2828603455191779</v>
+        <v>0.2760445287343683</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -8186,19 +8186,19 @@
         <v>31219</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22981</v>
+        <v>23172</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40810</v>
+        <v>40453</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1665029212101125</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1225671201011428</v>
+        <v>0.1235864862429827</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2176573473624834</v>
+        <v>0.2157534551199506</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>159</v>
@@ -8207,19 +8207,19 @@
         <v>142757</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>123890</v>
+        <v>122995</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>165128</v>
+        <v>164996</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2165904405996173</v>
+        <v>0.2165904405996174</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1879658761332201</v>
+        <v>0.1866074591097478</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2505326942501271</v>
+        <v>0.2503320326607576</v>
       </c>
     </row>
     <row r="14">
@@ -8236,19 +8236,19 @@
         <v>192730</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>171455</v>
+        <v>170530</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>215939</v>
+        <v>214251</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4086618490392389</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3635508861502618</v>
+        <v>0.3615902534165432</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4578739557556293</v>
+        <v>0.4542941078339803</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>75</v>
@@ -8257,19 +8257,19 @@
         <v>52551</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42409</v>
+        <v>42884</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62920</v>
+        <v>63354</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2802771907607121</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2261834205301803</v>
+        <v>0.2287168912386989</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3355782704839558</v>
+        <v>0.3378914131336634</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>245</v>
@@ -8278,19 +8278,19 @@
         <v>245281</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>219879</v>
+        <v>217774</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>268999</v>
+        <v>271063</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3721401586102862</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3336008253800322</v>
+        <v>0.3304065070400633</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4081253928515698</v>
+        <v>0.4112562395101101</v>
       </c>
     </row>
     <row r="15">
@@ -8382,19 +8382,19 @@
         <v>392836</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>358053</v>
+        <v>362506</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>424032</v>
+        <v>426907</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3470767285577867</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3163453626835537</v>
+        <v>0.320279717988853</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3746388309665214</v>
+        <v>0.3771789206214383</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>582</v>
@@ -8403,19 +8403,19 @@
         <v>366276</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>340395</v>
+        <v>341494</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>391166</v>
+        <v>392234</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4253029769508724</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3952514879521487</v>
+        <v>0.3965279436392035</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4542046124396772</v>
+        <v>0.4554448289656608</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1052</v>
@@ -8424,19 +8424,19 @@
         <v>759112</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>718082</v>
+        <v>715430</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>799552</v>
+        <v>800687</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3808787888789543</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3602924526361982</v>
+        <v>0.3589617794968187</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4011693921266551</v>
+        <v>0.4017387756289325</v>
       </c>
     </row>
     <row r="17">
@@ -8453,19 +8453,19 @@
         <v>232735</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>204886</v>
+        <v>204802</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>262453</v>
+        <v>263526</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2056251922790084</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1810201806672651</v>
+        <v>0.1809457174966795</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2318810548712944</v>
+        <v>0.2328294333387775</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>242</v>
@@ -8474,19 +8474,19 @@
         <v>178125</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>158511</v>
+        <v>157460</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>201175</v>
+        <v>200675</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2068307661303185</v>
+        <v>0.2068307661303184</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1840558279429396</v>
+        <v>0.1828360366610626</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2335952981228503</v>
+        <v>0.2330152105151238</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>475</v>
@@ -8495,19 +8495,19 @@
         <v>410860</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>375178</v>
+        <v>374580</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>448827</v>
+        <v>444954</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2061461284210413</v>
+        <v>0.2061461284210414</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1882426920316055</v>
+        <v>0.1879425008133302</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2251956546529932</v>
+        <v>0.2232521869325656</v>
       </c>
     </row>
     <row r="18">
@@ -8524,19 +8524,19 @@
         <v>506271</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>472910</v>
+        <v>466500</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>547131</v>
+        <v>540159</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4472980791632049</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4178233642730512</v>
+        <v>0.4121600756819092</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4833981166712689</v>
+        <v>0.4772388323838234</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>406</v>
@@ -8545,19 +8545,19 @@
         <v>316810</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>292714</v>
+        <v>291275</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>342984</v>
+        <v>341778</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3678662569188091</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3398864392229407</v>
+        <v>0.338215397759988</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3982574358304551</v>
+        <v>0.3968570570483365</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>821</v>
@@ -8566,19 +8566,19 @@
         <v>823082</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>778699</v>
+        <v>773798</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>868620</v>
+        <v>867854</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4129750827000044</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3907066485924963</v>
+        <v>0.3882473262868001</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4358234286409769</v>
+        <v>0.435439057383106</v>
       </c>
     </row>
     <row r="19">
@@ -8670,19 +8670,19 @@
         <v>190486</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>168943</v>
+        <v>168143</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>215473</v>
+        <v>213953</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3353830989487211</v>
+        <v>0.335383098948721</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2974545156863485</v>
+        <v>0.2960447609911841</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3793773479014245</v>
+        <v>0.3767023492225459</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>768</v>
@@ -8691,19 +8691,19 @@
         <v>450918</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>426268</v>
+        <v>424981</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>475004</v>
+        <v>473950</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5427185905536782</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5130502175935574</v>
+        <v>0.5115017026962079</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5717081389303743</v>
+        <v>0.5704397131826542</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>986</v>
@@ -8712,19 +8712,19 @@
         <v>641403</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>605316</v>
+        <v>606987</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>675296</v>
+        <v>677793</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4585336714704074</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4327348033332061</v>
+        <v>0.4339294638913544</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.482763203673208</v>
+        <v>0.484548021569607</v>
       </c>
     </row>
     <row r="21">
@@ -8741,19 +8741,19 @@
         <v>134943</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>114447</v>
+        <v>114129</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>158664</v>
+        <v>160258</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2375901152203923</v>
+        <v>0.2375901152203922</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2015034602362594</v>
+        <v>0.2009434891197843</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.279356572991331</v>
+        <v>0.2821619515422688</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>222</v>
@@ -8762,19 +8762,19 @@
         <v>145232</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>128251</v>
+        <v>127636</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>164434</v>
+        <v>163040</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1747996110215761</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1543609787486042</v>
+        <v>0.1536208163166626</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1979105443292816</v>
+        <v>0.196232296106895</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>352</v>
@@ -8783,19 +8783,19 @@
         <v>280175</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>252175</v>
+        <v>253018</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>309581</v>
+        <v>311096</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2002945876618839</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1802780083845575</v>
+        <v>0.1808800419046207</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2213164987927425</v>
+        <v>0.2224001822207969</v>
       </c>
     </row>
     <row r="22">
@@ -8812,19 +8812,19 @@
         <v>242536</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>217372</v>
+        <v>216060</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>268137</v>
+        <v>270301</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4270267858308867</v>
+        <v>0.4270267858308866</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3827215143735215</v>
+        <v>0.3804118717563615</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4721023882334425</v>
+        <v>0.4759123838577984</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>300</v>
@@ -8833,19 +8833,19 @@
         <v>234700</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>211885</v>
+        <v>213572</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>259446</v>
+        <v>259475</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2824817984247457</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2550224405574238</v>
+        <v>0.2570526441897861</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.312265603296058</v>
+        <v>0.3123010669384136</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>499</v>
@@ -8854,19 +8854,19 @@
         <v>477236</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>444218</v>
+        <v>440625</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>512497</v>
+        <v>511865</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3411717408677087</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3175678246634941</v>
+        <v>0.3149988246970811</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3663798730902118</v>
+        <v>0.3659281057948499</v>
       </c>
     </row>
     <row r="23">
@@ -8958,19 +8958,19 @@
         <v>37695</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23774</v>
+        <v>22673</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58864</v>
+        <v>57748</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1588967249400734</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1002157016575751</v>
+        <v>0.09557642268201903</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2481320103422739</v>
+        <v>0.2434277144750782</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>650</v>
@@ -8979,19 +8979,19 @@
         <v>392527</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>362864</v>
+        <v>365215</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>418915</v>
+        <v>419516</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.4649244794884972</v>
+        <v>0.4649244794884971</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.429790344326817</v>
+        <v>0.4325755641252623</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.49617930903743</v>
+        <v>0.496891271073434</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>673</v>
@@ -9000,19 +9000,19 @@
         <v>430222</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>396824</v>
+        <v>396296</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>465424</v>
+        <v>465692</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3977976291665296</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3669167680922188</v>
+        <v>0.3664289308649469</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4303468241716387</v>
+        <v>0.4305944517717349</v>
       </c>
     </row>
     <row r="25">
@@ -9029,19 +9029,19 @@
         <v>36347</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21202</v>
+        <v>22047</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55539</v>
+        <v>56685</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1532155746606405</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08937387859321184</v>
+        <v>0.09293600844318158</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2341148286007453</v>
+        <v>0.2389476929902759</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>219</v>
@@ -9050,19 +9050,19 @@
         <v>168397</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>144720</v>
+        <v>145626</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>191144</v>
+        <v>190198</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1994559304465255</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.171411736508871</v>
+        <v>0.1724851287292325</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2263979750615347</v>
+        <v>0.2252786203358998</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>238</v>
@@ -9071,19 +9071,19 @@
         <v>204744</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>175321</v>
+        <v>177427</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>235480</v>
+        <v>237246</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1893131594215449</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1621074357040956</v>
+        <v>0.1640547859138317</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2177325326789097</v>
+        <v>0.2193656803988204</v>
       </c>
     </row>
     <row r="26">
@@ -9100,19 +9100,19 @@
         <v>163186</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>139397</v>
+        <v>142084</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>183810</v>
+        <v>184722</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.687887700399286</v>
+        <v>0.6878877003992862</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5876063544445859</v>
+        <v>0.5989329122311186</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.77482374465866</v>
+        <v>0.7786665973640049</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>290</v>
@@ -9121,19 +9121,19 @@
         <v>283357</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>257629</v>
+        <v>257280</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>316334</v>
+        <v>315454</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3356195900649774</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3051458034442419</v>
+        <v>0.3047325290717089</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3746781288792279</v>
+        <v>0.3736361420710346</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>360</v>
@@ -9142,19 +9142,19 @@
         <v>446543</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>408245</v>
+        <v>405417</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>484385</v>
+        <v>487616</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4128892114119255</v>
+        <v>0.4128892114119256</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3774769856601591</v>
+        <v>0.3748622937753796</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4478788667045232</v>
+        <v>0.4508662476674469</v>
       </c>
     </row>
     <row r="27">
@@ -9246,19 +9246,19 @@
         <v>1115133</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1055638</v>
+        <v>1057220</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1176383</v>
+        <v>1173206</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.3239333053714462</v>
+        <v>0.3239333053714463</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3066507251543283</v>
+        <v>0.3071104563489237</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.341725941025389</v>
+        <v>0.340802976323669</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2716</v>
@@ -9267,19 +9267,19 @@
         <v>1680307</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1627868</v>
+        <v>1626696</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1727157</v>
+        <v>1735736</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4622077982795678</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4477833333053775</v>
+        <v>0.4474607149803623</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4750950547182726</v>
+        <v>0.4774547738826022</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4013</v>
@@ -9288,19 +9288,19 @@
         <v>2795440</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2713183</v>
+        <v>2723970</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2874446</v>
+        <v>2879811</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3949549837864667</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3833333657935712</v>
+        <v>0.384857312834263</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4061174802245037</v>
+        <v>0.4068753779774046</v>
       </c>
     </row>
     <row r="29">
@@ -9317,19 +9317,19 @@
         <v>763286</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>716299</v>
+        <v>710756</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>822924</v>
+        <v>814965</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2217260023241328</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2080766808044028</v>
+        <v>0.2064666368571148</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2390499852221172</v>
+        <v>0.2367381586261049</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1018</v>
@@ -9338,19 +9338,19 @@
         <v>729594</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>688812</v>
+        <v>681601</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>779181</v>
+        <v>772757</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2006918598424747</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.189473756348353</v>
+        <v>0.1874904177310829</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.21433188909785</v>
+        <v>0.2125648846652785</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1765</v>
@@ -9359,19 +9359,19 @@
         <v>1492880</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1428223</v>
+        <v>1431248</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1567240</v>
+        <v>1566433</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2109222736562528</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.201787202304897</v>
+        <v>0.2022145378276261</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2214282913880628</v>
+        <v>0.2213142005592272</v>
       </c>
     </row>
     <row r="30">
@@ -9388,19 +9388,19 @@
         <v>1564057</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1498417</v>
+        <v>1501959</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1632716</v>
+        <v>1630792</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.454340692304421</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4352730954462685</v>
+        <v>0.4363019813110801</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4742853576520476</v>
+        <v>0.473726409676909</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1510</v>
@@ -9409,19 +9409,19 @@
         <v>1225492</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1179857</v>
+        <v>1170174</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1280000</v>
+        <v>1277960</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3371003418779576</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3245473804049288</v>
+        <v>0.3218837762426217</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3520940069909936</v>
+        <v>0.3515327075542163</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2766</v>
@@ -9430,19 +9430,19 @@
         <v>2789549</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2709876</v>
+        <v>2696003</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2885376</v>
+        <v>2873510</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3941227425572805</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3828661527813955</v>
+        <v>0.3809059658331178</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4076617176821038</v>
+        <v>0.4059852527604406</v>
       </c>
     </row>
     <row r="31">
